--- a/数据整理/stocks/A股/深证主板/003031-中瓷电子.xlsx
+++ b/数据整理/stocks/A股/深证主板/003031-中瓷电子.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,6 +451,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -537,56 +589,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/003031-中瓷电子.xlsx
+++ b/数据整理/stocks/A股/深证主板/003031-中瓷电子.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,6 +515,1162 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013812</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺景气进取混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7553</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3045</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7186</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013813</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺景气进取混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4863</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2962</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2894</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2570</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富策略增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013365</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信高端装备股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银银和利混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信高端装备股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015097</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005953</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015096</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015683</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013366</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>66.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>66.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005954</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>016906</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/003031-中瓷电子.xlsx
+++ b/数据整理/stocks/A股/深证主板/003031-中瓷电子.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>5.89</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -515,6 +532,1124 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3187</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信优化配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9860</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8120</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6151</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014967</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4293</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013919</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4188</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2608</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2090</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013365</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信高端装备股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>62.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信高端装备股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013366</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015436</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信优化配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>016906</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1670,7 +2805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
